--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/A7677S/49TB_TG102LE4G_ESIM_A7677S_181224.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/A7677S/49TB_TG102LE4G_ESIM_A7677S_181224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\A7677S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAFDACE-7AB9-4AEF-8728-47A1B7FA0E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8C3A4-2D7B-4025-9E0B-98EE6119EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BB8BB20A-DADB-4502-9219-8545458BC20B}"/>
   </bookViews>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,17 +308,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB308DE6-DEE7-4D5A-A59E-C191F88BD84E}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>84842601245</v>
       </c>
@@ -1185,7 +1181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>84842603854</v>
       </c>
@@ -1196,23 +1192,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
